--- a/testData/FindingHospitals_TestData.xlsx
+++ b/testData/FindingHospitals_TestData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="14">
   <si>
     <t>CityName</t>
   </si>
@@ -551,7 +551,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">

--- a/testData/FindingHospitals_TestData.xlsx
+++ b/testData/FindingHospitals_TestData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="14">
   <si>
     <t>CityName</t>
   </si>

--- a/testData/FindingHospitals_TestData.xlsx
+++ b/testData/FindingHospitals_TestData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="14">
   <si>
     <t>CityName</t>
   </si>

--- a/testData/FindingHospitals_TestData.xlsx
+++ b/testData/FindingHospitals_TestData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="14">
   <si>
     <t>CityName</t>
   </si>

--- a/testData/FindingHospitals_TestData.xlsx
+++ b/testData/FindingHospitals_TestData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="20">
   <si>
     <t>CityName</t>
   </si>
@@ -79,6 +79,24 @@
   </si>
   <si>
     <t>Apollo Cradle &amp; Children’s Hospital</t>
+  </si>
+  <si>
+    <t>MIOT International Hospital</t>
+  </si>
+  <si>
+    <t>Apollo Spectra Hospital</t>
+  </si>
+  <si>
+    <t>Apollo Cradle</t>
+  </si>
+  <si>
+    <t>Cloudnine Hospital</t>
+  </si>
+  <si>
+    <t>Shadithya Hospital</t>
+  </si>
+  <si>
+    <t>Promed Hospital</t>
   </si>
 </sst>
 </file>
